--- a/doc/chunk dimension.xlsx
+++ b/doc/chunk dimension.xlsx
@@ -73,7 +73,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -93,6 +93,14 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:trendline>
+            <c:trendlineType val="power"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$15</c:f>
@@ -211,6 +219,14 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:trendline>
+            <c:trendlineType val="power"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$15</c:f>
@@ -315,23 +331,33 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="57855360"/>
-        <c:axId val="57853824"/>
+        <c:axId val="87480192"/>
+        <c:axId val="87481728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57855360"/>
+        <c:axId val="87480192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57853824"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="fr-FR"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="87481728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57853824"/>
+        <c:axId val="87481728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -339,7 +365,17 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57855360"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="fr-FR"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="87480192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -347,12 +383,22 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="fr-FR"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -363,15 +409,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>304799</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
